--- a/example_data/EMA/label_corrected/cinryze-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/cinryze-epar-product-information_en.xlsx
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>populations - neonate || populations - pediatric || warnings</t>
+          <t>populations - pediatric || warnings || populations - neonate</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>populations - neonate || populations - pediatric || warnings</t>
+          <t>populations - pediatric || warnings || populations - neonate</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>populations - adult || pregnancy</t>
+          <t>pregnancy || populations - adult</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
